--- a/Planning Vuurwerkshop.xlsx
+++ b/Planning Vuurwerkshop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rensb\Desktop\vuurwerkjes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B168C44-4E0E-431E-B36A-1D3D81A5CF23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1502DD-4028-48D1-BFE3-B2C4A613C59F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{007C5765-FFF4-49AC-91CC-52D98010C8B9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>Fase</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>Erik</t>
   </si>
   <si>
     <t>Implementeren</t>
@@ -496,7 +499,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,13 +570,13 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -587,13 +590,13 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -604,16 +607,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -624,16 +627,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -647,10 +650,10 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -664,13 +667,13 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -684,13 +687,13 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -704,13 +707,13 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -724,16 +727,16 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -747,13 +750,13 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -767,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -784,10 +787,10 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -801,10 +804,10 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -818,10 +821,10 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -829,19 +832,19 @@
         <v>3.101</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -855,13 +858,13 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -869,16 +872,16 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Planning Vuurwerkshop.xlsx
+++ b/Planning Vuurwerkshop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rensb\Desktop\vuurwerkjes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1502DD-4028-48D1-BFE3-B2C4A613C59F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF93DCE-FA94-4027-8A0D-4B91E448E5A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{007C5765-FFF4-49AC-91CC-52D98010C8B9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>Fase</t>
   </si>
@@ -111,40 +111,10 @@
     <t>Jeffrey en Erik</t>
   </si>
   <si>
-    <t>Footer maken (altijd aan de onderkant van het scherm)</t>
-  </si>
-  <si>
-    <t>5 uur</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>8 uur</t>
-  </si>
-  <si>
-    <t>3 uur</t>
-  </si>
-  <si>
-    <t>2 uur</t>
-  </si>
-  <si>
-    <t>1 uur</t>
-  </si>
-  <si>
-    <t>1.5 uur</t>
-  </si>
-  <si>
-    <t>0.5 uur</t>
-  </si>
-  <si>
-    <t>20 min</t>
-  </si>
-  <si>
-    <t>13 uur</t>
-  </si>
-  <si>
-    <t>25 min</t>
+    <t>toevoegen items (admin)</t>
   </si>
 </sst>
 </file>
@@ -499,7 +469,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,14 +539,14 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -589,14 +559,14 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -609,14 +579,14 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -629,14 +599,14 @@
       <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -649,11 +619,11 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>36</v>
+      <c r="D7">
+        <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -666,14 +636,14 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -686,14 +656,14 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
+      <c r="D9">
+        <v>1.5</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -706,14 +676,14 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -726,17 +696,17 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -749,14 +719,14 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -769,11 +739,11 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
-        <v>31</v>
+      <c r="D13">
+        <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -786,11 +756,11 @@
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" t="s">
-        <v>31</v>
+      <c r="D14">
+        <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -803,11 +773,11 @@
       <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" t="s">
-        <v>32</v>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -820,11 +790,11 @@
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" t="s">
-        <v>31</v>
+      <c r="D16">
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -832,19 +802,16 @@
         <v>3.101</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
+      <c r="D17">
+        <v>0.5</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -857,14 +824,14 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -875,13 +842,13 @@
         <v>24</v>
       </c>
       <c r="L19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
